--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Cd59b-Cd2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Cd59b-Cd2.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.263950333333334</v>
+        <v>0.4946373333333334</v>
       </c>
       <c r="H2">
-        <v>3.791851</v>
+        <v>1.483912</v>
       </c>
       <c r="I2">
-        <v>0.2656394357798434</v>
+        <v>0.1240056293871995</v>
       </c>
       <c r="J2">
-        <v>0.2656394357798435</v>
+        <v>0.1240056293871996</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.2115573333333333</v>
+        <v>0.02123233333333334</v>
       </c>
       <c r="N2">
-        <v>0.634672</v>
+        <v>0.063697</v>
       </c>
       <c r="O2">
-        <v>0.4893177236123372</v>
+        <v>0.08772724768620539</v>
       </c>
       <c r="P2">
-        <v>0.4893177236123373</v>
+        <v>0.08772724768620538</v>
       </c>
       <c r="Q2">
-        <v>0.2673979619857778</v>
+        <v>0.01050230474044445</v>
       </c>
       <c r="R2">
-        <v>2.406581657872</v>
+        <v>0.09452074266400001</v>
       </c>
       <c r="S2">
-        <v>0.1299820840174586</v>
+        <v>0.01087867256373464</v>
       </c>
       <c r="T2">
-        <v>0.1299820840174587</v>
+        <v>0.01087867256373464</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.263950333333334</v>
+        <v>0.4946373333333334</v>
       </c>
       <c r="H3">
-        <v>3.791851</v>
+        <v>1.483912</v>
       </c>
       <c r="I3">
-        <v>0.2656394357798434</v>
+        <v>0.1240056293871995</v>
       </c>
       <c r="J3">
-        <v>0.2656394357798435</v>
+        <v>0.1240056293871996</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -617,25 +617,25 @@
         <v>0.2207943333333333</v>
       </c>
       <c r="N3">
-        <v>0.6623829999999999</v>
+        <v>0.6623830000000001</v>
       </c>
       <c r="O3">
-        <v>0.5106822763876627</v>
+        <v>0.9122727523137947</v>
       </c>
       <c r="P3">
-        <v>0.5106822763876628</v>
+        <v>0.9122727523137947</v>
       </c>
       <c r="Q3">
-        <v>0.2790730712147778</v>
+        <v>0.1092131202551111</v>
       </c>
       <c r="R3">
-        <v>2.511657640933</v>
+        <v>0.9829180822960002</v>
       </c>
       <c r="S3">
-        <v>0.1356573517623848</v>
+        <v>0.1131269568234649</v>
       </c>
       <c r="T3">
-        <v>0.1356573517623849</v>
+        <v>0.1131269568234649</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>4.098903</v>
       </c>
       <c r="I4">
-        <v>0.2871500700413354</v>
+        <v>0.3425317985918844</v>
       </c>
       <c r="J4">
-        <v>0.2871500700413355</v>
+        <v>0.3425317985918844</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -676,28 +676,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.2115573333333333</v>
+        <v>0.02123233333333334</v>
       </c>
       <c r="N4">
-        <v>0.634672</v>
+        <v>0.063697</v>
       </c>
       <c r="O4">
-        <v>0.4893177236123372</v>
+        <v>0.08772724768620539</v>
       </c>
       <c r="P4">
-        <v>0.4893177236123373</v>
+        <v>0.08772724768620538</v>
       </c>
       <c r="Q4">
-        <v>0.2890509960906667</v>
+        <v>0.02900975826566667</v>
       </c>
       <c r="R4">
-        <v>2.601458964816</v>
+        <v>0.261087824391</v>
       </c>
       <c r="S4">
-        <v>0.1405076186077494</v>
+        <v>0.03004937193547166</v>
       </c>
       <c r="T4">
-        <v>0.1405076186077495</v>
+        <v>0.03004937193547166</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>4.098903</v>
       </c>
       <c r="I5">
-        <v>0.2871500700413354</v>
+        <v>0.3425317985918844</v>
       </c>
       <c r="J5">
-        <v>0.2871500700413355</v>
+        <v>0.3425317985918844</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,13 +741,13 @@
         <v>0.2207943333333333</v>
       </c>
       <c r="N5">
-        <v>0.6623829999999999</v>
+        <v>0.6623830000000001</v>
       </c>
       <c r="O5">
-        <v>0.5106822763876627</v>
+        <v>0.9122727523137947</v>
       </c>
       <c r="P5">
-        <v>0.5106822763876628</v>
+        <v>0.9122727523137947</v>
       </c>
       <c r="Q5">
         <v>0.3016715184276667</v>
@@ -756,10 +756,10 @@
         <v>2.715043665849</v>
       </c>
       <c r="S5">
-        <v>0.1466424514335859</v>
+        <v>0.3124824266564127</v>
       </c>
       <c r="T5">
-        <v>0.146642451433586</v>
+        <v>0.3124824266564128</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.127891333333334</v>
+        <v>2.127891333333333</v>
       </c>
       <c r="H6">
-        <v>6.383674000000001</v>
+        <v>6.383674</v>
       </c>
       <c r="I6">
-        <v>0.447210494178821</v>
+        <v>0.5334625720209161</v>
       </c>
       <c r="J6">
-        <v>0.4472104941788211</v>
+        <v>0.5334625720209161</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -800,28 +800,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.2115573333333333</v>
+        <v>0.02123233333333334</v>
       </c>
       <c r="N6">
-        <v>0.634672</v>
+        <v>0.063697</v>
       </c>
       <c r="O6">
-        <v>0.4893177236123372</v>
+        <v>0.08772724768620539</v>
       </c>
       <c r="P6">
-        <v>0.4893177236123373</v>
+        <v>0.08772724768620538</v>
       </c>
       <c r="Q6">
-        <v>0.4501710161031112</v>
+        <v>0.04518009808644445</v>
       </c>
       <c r="R6">
-        <v>4.051539144928</v>
+        <v>0.406620882778</v>
       </c>
       <c r="S6">
-        <v>0.2188280209871291</v>
+        <v>0.04679920318699909</v>
       </c>
       <c r="T6">
-        <v>0.2188280209871291</v>
+        <v>0.04679920318699908</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.127891333333334</v>
+        <v>2.127891333333333</v>
       </c>
       <c r="H7">
-        <v>6.383674000000001</v>
+        <v>6.383674</v>
       </c>
       <c r="I7">
-        <v>0.447210494178821</v>
+        <v>0.5334625720209161</v>
       </c>
       <c r="J7">
-        <v>0.4472104941788211</v>
+        <v>0.5334625720209161</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -865,25 +865,25 @@
         <v>0.2207943333333333</v>
       </c>
       <c r="N7">
-        <v>0.6623829999999999</v>
+        <v>0.6623830000000001</v>
       </c>
       <c r="O7">
-        <v>0.5106822763876627</v>
+        <v>0.9122727523137947</v>
       </c>
       <c r="P7">
-        <v>0.5106822763876628</v>
+        <v>0.9122727523137947</v>
       </c>
       <c r="Q7">
-        <v>0.4698263483491112</v>
+        <v>0.4698263483491111</v>
       </c>
       <c r="R7">
         <v>4.228437135142</v>
       </c>
       <c r="S7">
-        <v>0.2283824731916919</v>
+        <v>0.486663368833917</v>
       </c>
       <c r="T7">
-        <v>0.228382473191692</v>
+        <v>0.486663368833917</v>
       </c>
     </row>
   </sheetData>
